--- a/resultados/pretratamiento-tablas-control/pretrat-all-elo-facil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-all-elo-facil-regular.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="1259">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>43.528 (627)</t>
   </si>
   <si>
-    <t>10.78 (627)</t>
+    <t>10.772 (627)</t>
   </si>
   <si>
     <t>10.625 (627)</t>
@@ -331,7 +331,7 @@
     <t>43.52 (500)</t>
   </si>
   <si>
-    <t>10.72 (500)</t>
+    <t>10.714 (500)</t>
   </si>
   <si>
     <t>10.56 (500)</t>
@@ -385,7 +385,7 @@
     <t>43.187 (498)</t>
   </si>
   <si>
-    <t>11.07 (498)</t>
+    <t>11.066 (498)</t>
   </si>
   <si>
     <t>10.454 (498)</t>
@@ -544,7 +544,7 @@
     <t>44.117 (402)</t>
   </si>
   <si>
-    <t>10.619 (402)</t>
+    <t>10.612 (402)</t>
   </si>
   <si>
     <t>10.572 (402)</t>
@@ -598,7 +598,7 @@
     <t>42.674 (524)</t>
   </si>
   <si>
-    <t>11.141 (524)</t>
+    <t>11.137 (524)</t>
   </si>
   <si>
     <t>10.494 (524)</t>
@@ -760,7 +760,7 @@
     <t>44.387 (313)</t>
   </si>
   <si>
-    <t>10.53 (313)</t>
+    <t>10.521 (313)</t>
   </si>
   <si>
     <t>10.527 (313)</t>
@@ -811,7 +811,7 @@
     <t>42.65 (548)</t>
   </si>
   <si>
-    <t>11.077 (548)</t>
+    <t>11.073 (548)</t>
   </si>
   <si>
     <t>10.458 (548)</t>
@@ -967,7 +967,7 @@
     <t>43.377 (422)</t>
   </si>
   <si>
-    <t>11.04 (422)</t>
+    <t>11.036 (422)</t>
   </si>
   <si>
     <t>10.799 (422)</t>
@@ -1021,7 +1021,7 @@
     <t>42.55 (424)</t>
   </si>
   <si>
-    <t>11.21 (424)</t>
+    <t>11.208 (424)</t>
   </si>
   <si>
     <t>10.425 (424)</t>
@@ -1180,7 +1180,7 @@
     <t>43.659 (302)</t>
   </si>
   <si>
-    <t>11.003 (302)</t>
+    <t>10.997 (302)</t>
   </si>
   <si>
     <t>10.652 (302)</t>
@@ -1234,7 +1234,7 @@
     <t>42.814 (468)</t>
   </si>
   <si>
-    <t>11.233 (468)</t>
+    <t>11.231 (468)</t>
   </si>
   <si>
     <t>10.564 (468)</t>
@@ -1450,7 +1450,7 @@
     <t>42.906 (459)</t>
   </si>
   <si>
-    <t>11.227 (459)</t>
+    <t>11.218 (459)</t>
   </si>
   <si>
     <t>10.673 (459)</t>
@@ -1504,7 +1504,7 @@
     <t>41.785 (223)</t>
   </si>
   <si>
-    <t>11.274 (223)</t>
+    <t>11.278 (223)</t>
   </si>
   <si>
     <t>10.619 (223)</t>
@@ -1663,7 +1663,7 @@
     <t>43.105 (440)</t>
   </si>
   <si>
-    <t>11.118 (440)</t>
+    <t>11.109 (440)</t>
   </si>
   <si>
     <t>10.634 (440)</t>
@@ -1717,7 +1717,7 @@
     <t>42.319 (285)</t>
   </si>
   <si>
-    <t>11.379 (285)</t>
+    <t>11.382 (285)</t>
   </si>
   <si>
     <t>10.575 (285)</t>
@@ -1879,7 +1879,7 @@
     <t>42.713 (279)</t>
   </si>
   <si>
-    <t>11.168 (279)</t>
+    <t>11.165 (279)</t>
   </si>
   <si>
     <t>10.828 (279)</t>
@@ -1933,7 +1933,7 @@
     <t>41.525 (377)</t>
   </si>
   <si>
-    <t>11.52 (377)</t>
+    <t>11.509 (377)</t>
   </si>
   <si>
     <t>10.724 (377)</t>
@@ -1987,7 +1987,7 @@
     <t>44.08 (112)</t>
   </si>
   <si>
-    <t>11.17 (112)</t>
+    <t>11.179 (112)</t>
   </si>
   <si>
     <t>10.339 (112)</t>
@@ -2095,7 +2095,7 @@
     <t>42.677 (186)</t>
   </si>
   <si>
-    <t>11.274 (186)</t>
+    <t>11.269 (186)</t>
   </si>
   <si>
     <t>10.817 (186)</t>
@@ -2149,7 +2149,7 @@
     <t>42.186 (376)</t>
   </si>
   <si>
-    <t>11.386 (376)</t>
+    <t>11.378 (376)</t>
   </si>
   <si>
     <t>10.694 (376)</t>
@@ -2362,7 +2362,7 @@
     <t>41.924 (341)</t>
   </si>
   <si>
-    <t>11.29 (341)</t>
+    <t>11.284 (341)</t>
   </si>
   <si>
     <t>10.842 (341)</t>
@@ -2416,7 +2416,7 @@
     <t>42.057 (245)</t>
   </si>
   <si>
-    <t>11.429 (245)</t>
+    <t>11.416 (245)</t>
   </si>
   <si>
     <t>10.335 (245)</t>
@@ -2470,7 +2470,7 @@
     <t>45.286 (63)</t>
   </si>
   <si>
-    <t>11.286 (63)</t>
+    <t>11.302 (63)</t>
   </si>
   <si>
     <t>11.111 (63)</t>
@@ -2623,7 +2623,7 @@
     <t>42.305 (285)</t>
   </si>
   <si>
-    <t>11.179 (285)</t>
+    <t>11.172 (285)</t>
   </si>
   <si>
     <t>10.747 (285)</t>
@@ -2677,7 +2677,7 @@
     <t>41.776 (308)</t>
   </si>
   <si>
-    <t>11.367 (308)</t>
+    <t>11.36 (308)</t>
   </si>
   <si>
     <t>10.494 (308)</t>
@@ -2830,7 +2830,7 @@
     <t>40.831 (160)</t>
   </si>
   <si>
-    <t>11.138 (160)</t>
+    <t>11.131 (160)</t>
   </si>
   <si>
     <t>11.019 (160)</t>
@@ -2884,7 +2884,7 @@
     <t>42.038 (315)</t>
   </si>
   <si>
-    <t>11.514 (315)</t>
+    <t>11.511 (315)</t>
   </si>
   <si>
     <t>10.6 (315)</t>
@@ -2938,7 +2938,7 @@
     <t>42.061 (131)</t>
   </si>
   <si>
-    <t>11.992 (131)</t>
+    <t>11.985 (131)</t>
   </si>
   <si>
     <t>10.756 (131)</t>
@@ -2992,7 +2992,7 @@
     <t>65.167 (6)</t>
   </si>
   <si>
-    <t>9.667 (6)</t>
+    <t>9.833 (6)</t>
   </si>
   <si>
     <t>11.0 (6)</t>
@@ -3097,7 +3097,7 @@
     <t>42.085 (282)</t>
   </si>
   <si>
-    <t>11.312 (282)</t>
+    <t>11.301 (282)</t>
   </si>
   <si>
     <t>10.61 (282)</t>
@@ -3205,15 +3205,18 @@
     <t>43.432 (44)</t>
   </si>
   <si>
+    <t>11.455 (44)</t>
+  </si>
+  <si>
+    <t>11.136 (44)</t>
+  </si>
+  <si>
+    <t>10.591 (44)</t>
+  </si>
+  <si>
     <t>11.432 (44)</t>
   </si>
   <si>
-    <t>11.136 (44)</t>
-  </si>
-  <si>
-    <t>10.591 (44)</t>
-  </si>
-  <si>
     <t>12.068 (44)</t>
   </si>
   <si>
@@ -3304,7 +3307,7 @@
     <t>41.909 (219)</t>
   </si>
   <si>
-    <t>11.475 (219)</t>
+    <t>11.479 (219)</t>
   </si>
   <si>
     <t>10.831 (219)</t>
@@ -3355,7 +3358,7 @@
     <t>41.909 (242)</t>
   </si>
   <si>
-    <t>11.632 (242)</t>
+    <t>11.612 (242)</t>
   </si>
   <si>
     <t>10.459 (242)</t>
@@ -3409,7 +3412,7 @@
     <t>43.155 (84)</t>
   </si>
   <si>
-    <t>11.464 (84)</t>
+    <t>11.476 (84)</t>
   </si>
   <si>
     <t>11.048 (84)</t>
@@ -3460,7 +3463,7 @@
     <t>43.75 (8)</t>
   </si>
   <si>
-    <t>12.625 (8)</t>
+    <t>12.75 (8)</t>
   </si>
   <si>
     <t>10.125 (8)</t>
@@ -3475,9 +3478,6 @@
     <t>14.125 (8)</t>
   </si>
   <si>
-    <t>12.75 (8)</t>
-  </si>
-  <si>
     <t>0.8 (8)</t>
   </si>
   <si>
@@ -3622,7 +3622,7 @@
     <t>41.177 (260)</t>
   </si>
   <si>
-    <t>11.377 (260)</t>
+    <t>11.365 (260)</t>
   </si>
   <si>
     <t>10.488 (260)</t>
@@ -3727,19 +3727,22 @@
     <t>43.292 (24)</t>
   </si>
   <si>
+    <t>12.208 (24)</t>
+  </si>
+  <si>
+    <t>10.208 (24)</t>
+  </si>
+  <si>
+    <t>11.375 (24)</t>
+  </si>
+  <si>
+    <t>11.875 (24)</t>
+  </si>
+  <si>
+    <t>12.042 (24)</t>
+  </si>
+  <si>
     <t>12.167 (24)</t>
-  </si>
-  <si>
-    <t>10.208 (24)</t>
-  </si>
-  <si>
-    <t>11.375 (24)</t>
-  </si>
-  <si>
-    <t>11.875 (24)</t>
-  </si>
-  <si>
-    <t>12.042 (24)</t>
   </si>
   <si>
     <t>0.812 (24)</t>
@@ -4236,10 +4239,10 @@
         <v>-2.052</v>
       </c>
       <c r="I2">
-        <v>-1.213</v>
+        <v>-1.114</v>
       </c>
       <c r="J2">
-        <v>0.226</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4268,10 +4271,10 @@
         <v>0.778</v>
       </c>
       <c r="I3">
-        <v>0.518</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="J3">
-        <v>0.605</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4303,7 +4306,7 @@
         <v>0.043</v>
       </c>
       <c r="J4">
-        <v>0.965</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4332,10 +4335,10 @@
         <v>0.171</v>
       </c>
       <c r="I5">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
       <c r="J5">
-        <v>0.9370000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4364,10 +4367,10 @@
         <v>1.871</v>
       </c>
       <c r="I6">
-        <v>0.847</v>
+        <v>0.834</v>
       </c>
       <c r="J6">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4425,13 +4428,13 @@
         <v>0.038</v>
       </c>
       <c r="H8">
-        <v>0.45</v>
+        <v>0.481</v>
       </c>
       <c r="I8">
-        <v>0.605</v>
+        <v>0.617</v>
       </c>
       <c r="J8">
-        <v>0.545</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4460,10 +4463,10 @@
         <v>-0.229</v>
       </c>
       <c r="I9">
-        <v>-0.323</v>
+        <v>-0.381</v>
       </c>
       <c r="J9">
-        <v>0.747</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4492,10 +4495,10 @@
         <v>-0.053</v>
       </c>
       <c r="I10">
-        <v>-0.062</v>
+        <v>-0.059</v>
       </c>
       <c r="J10">
-        <v>0.951</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4524,10 +4527,10 @@
         <v>-0.168</v>
       </c>
       <c r="I11">
-        <v>-0.193</v>
+        <v>-0.184</v>
       </c>
       <c r="J11">
-        <v>0.847</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4556,10 +4559,10 @@
         <v>-0.146</v>
       </c>
       <c r="I12">
-        <v>-0.165</v>
+        <v>-0.17</v>
       </c>
       <c r="J12">
-        <v>0.869</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4588,7 +4591,7 @@
         <v>-0.04</v>
       </c>
       <c r="I13">
-        <v>-0.045</v>
+        <v>-0.046</v>
       </c>
       <c r="J13">
         <v>0.964</v>
@@ -4620,10 +4623,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.771</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="J14">
-        <v>0.441</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4652,10 +4655,10 @@
         <v>-0.003</v>
       </c>
       <c r="I15">
-        <v>-0.223</v>
+        <v>-0.214</v>
       </c>
       <c r="J15">
-        <v>0.823</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4684,10 +4687,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.126</v>
+        <v>-0.147</v>
       </c>
       <c r="J16">
-        <v>0.9</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4716,10 +4719,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>0.898</v>
+        <v>0.854</v>
       </c>
       <c r="J17">
-        <v>0.37</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4748,10 +4751,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>1.21</v>
+        <v>1.017</v>
       </c>
       <c r="J18">
-        <v>0.226</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4780,10 +4783,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>-0.494</v>
+        <v>-0.438</v>
       </c>
       <c r="J19">
-        <v>0.622</v>
+        <v>0.662</v>
       </c>
     </row>
   </sheetData>
@@ -4869,10 +4872,10 @@
         <v>-3.402</v>
       </c>
       <c r="I2">
-        <v>-1.648</v>
+        <v>-1.506</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4901,10 +4904,10 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="I3">
-        <v>0.334</v>
+        <v>0.341</v>
       </c>
       <c r="J3">
-        <v>0.738</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4933,10 +4936,10 @@
         <v>-3.448</v>
       </c>
       <c r="I4">
-        <v>-1.386</v>
+        <v>-1.347</v>
       </c>
       <c r="J4">
-        <v>0.166</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4965,10 +4968,10 @@
         <v>-3.851</v>
       </c>
       <c r="I5">
-        <v>-1.428</v>
+        <v>-1.373</v>
       </c>
       <c r="J5">
-        <v>0.154</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4997,10 +5000,10 @@
         <v>-1.674</v>
       </c>
       <c r="I6">
-        <v>-0.609</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="J6">
-        <v>0.543</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5029,10 +5032,10 @@
         <v>-2.381</v>
       </c>
       <c r="I7">
-        <v>-0.8179999999999999</v>
+        <v>-0.726</v>
       </c>
       <c r="J7">
-        <v>0.414</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5061,10 +5064,10 @@
         <v>1.388</v>
       </c>
       <c r="I8">
-        <v>1.472</v>
+        <v>1.358</v>
       </c>
       <c r="J8">
-        <v>0.142</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5125,10 +5128,10 @@
         <v>1.36</v>
       </c>
       <c r="I10">
-        <v>1.269</v>
+        <v>1.188</v>
       </c>
       <c r="J10">
-        <v>0.205</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5157,10 +5160,10 @@
         <v>0.794</v>
       </c>
       <c r="I11">
-        <v>0.712</v>
+        <v>0.698</v>
       </c>
       <c r="J11">
-        <v>0.477</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5189,10 +5192,10 @@
         <v>0.453</v>
       </c>
       <c r="I12">
-        <v>0.403</v>
+        <v>0.362</v>
       </c>
       <c r="J12">
-        <v>0.6870000000000001</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5221,10 +5224,10 @@
         <v>0.327</v>
       </c>
       <c r="I13">
-        <v>0.283</v>
+        <v>0.254</v>
       </c>
       <c r="J13">
-        <v>0.777</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5253,10 +5256,10 @@
         <v>0.002</v>
       </c>
       <c r="I14">
-        <v>0.135</v>
+        <v>0.115</v>
       </c>
       <c r="J14">
-        <v>0.892</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5285,10 +5288,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.206</v>
+        <v>0.177</v>
       </c>
       <c r="J15">
-        <v>0.837</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5317,10 +5320,10 @@
         <v>-0.005</v>
       </c>
       <c r="I16">
-        <v>-0.262</v>
+        <v>-0.241</v>
       </c>
       <c r="J16">
-        <v>0.794</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5349,10 +5352,10 @@
         <v>0.034</v>
       </c>
       <c r="I17">
-        <v>1.699</v>
+        <v>1.394</v>
       </c>
       <c r="J17">
-        <v>0.09</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5384,7 +5387,7 @@
         <v>0.839</v>
       </c>
       <c r="J18">
-        <v>0.402</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5413,10 +5416,10 @@
         <v>0.006</v>
       </c>
       <c r="I19">
-        <v>0.297</v>
+        <v>0.245</v>
       </c>
       <c r="J19">
-        <v>0.767</v>
+        <v>0.806</v>
       </c>
     </row>
   </sheetData>
@@ -5509,10 +5512,10 @@
         <v>-3.429</v>
       </c>
       <c r="J2">
-        <v>-1.431</v>
+        <v>-1.408</v>
       </c>
       <c r="K2">
-        <v>0.153</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5544,10 +5547,10 @@
         <v>0.985</v>
       </c>
       <c r="J3">
-        <v>0.509</v>
+        <v>0.439</v>
       </c>
       <c r="K3">
-        <v>0.611</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5579,10 +5582,10 @@
         <v>-1.784</v>
       </c>
       <c r="J4">
-        <v>-0.617</v>
+        <v>-0.62</v>
       </c>
       <c r="K4">
-        <v>0.537</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5649,10 +5652,10 @@
         <v>-1.344</v>
       </c>
       <c r="J6">
-        <v>-0.421</v>
+        <v>-0.391</v>
       </c>
       <c r="K6">
-        <v>0.674</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5684,10 +5687,10 @@
         <v>-2.711</v>
       </c>
       <c r="J7">
-        <v>-0.802</v>
+        <v>-0.645</v>
       </c>
       <c r="K7">
-        <v>0.423</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5716,13 +5719,13 @@
         <v>0.029</v>
       </c>
       <c r="I8">
-        <v>1.664</v>
+        <v>1.64</v>
       </c>
       <c r="J8">
-        <v>1.521</v>
+        <v>1.477</v>
       </c>
       <c r="K8">
-        <v>0.129</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5754,10 +5757,10 @@
         <v>-0.271</v>
       </c>
       <c r="J9">
-        <v>-0.28</v>
+        <v>-0.245</v>
       </c>
       <c r="K9">
-        <v>0.779</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5789,10 +5792,10 @@
         <v>0.363</v>
       </c>
       <c r="J10">
-        <v>0.292</v>
+        <v>0.281</v>
       </c>
       <c r="K10">
-        <v>0.771</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5824,10 +5827,10 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="J11">
-        <v>0.527</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="K11">
-        <v>0.598</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5859,10 +5862,10 @@
         <v>0.387</v>
       </c>
       <c r="J12">
-        <v>0.297</v>
+        <v>0.267</v>
       </c>
       <c r="K12">
-        <v>0.767</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5894,10 +5897,10 @@
         <v>0.644</v>
       </c>
       <c r="J13">
-        <v>0.479</v>
+        <v>0.391</v>
       </c>
       <c r="K13">
-        <v>0.632</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5929,10 +5932,10 @@
         <v>-0.005</v>
       </c>
       <c r="J14">
-        <v>-0.266</v>
+        <v>-0.288</v>
       </c>
       <c r="K14">
-        <v>0.79</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5964,10 +5967,10 @@
         <v>0.004</v>
       </c>
       <c r="J15">
-        <v>0.223</v>
+        <v>0.202</v>
       </c>
       <c r="K15">
-        <v>0.823</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5999,10 +6002,10 @@
         <v>-0.008</v>
       </c>
       <c r="J16">
-        <v>-0.392</v>
+        <v>-0.361</v>
       </c>
       <c r="K16">
-        <v>0.696</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6034,10 +6037,10 @@
         <v>0.03</v>
       </c>
       <c r="J17">
-        <v>1.287</v>
+        <v>1.089</v>
       </c>
       <c r="K17">
-        <v>0.199</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6069,10 +6072,10 @@
         <v>-0.006</v>
       </c>
       <c r="J18">
-        <v>-0.222</v>
+        <v>-0.238</v>
       </c>
       <c r="K18">
-        <v>0.824</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6104,10 +6107,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J19">
-        <v>-0.382</v>
+        <v>-0.335</v>
       </c>
       <c r="K19">
-        <v>0.702</v>
+        <v>0.738</v>
       </c>
     </row>
   </sheetData>
@@ -6200,10 +6203,10 @@
         <v>-4.883</v>
       </c>
       <c r="J2">
-        <v>-1.728</v>
+        <v>-1.576</v>
       </c>
       <c r="K2">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6235,10 +6238,10 @@
         <v>0.778</v>
       </c>
       <c r="J3">
-        <v>0.34</v>
+        <v>0.281</v>
       </c>
       <c r="K3">
-        <v>0.734</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6270,10 +6273,10 @@
         <v>-0.719</v>
       </c>
       <c r="J4">
-        <v>-0.211</v>
+        <v>-0.217</v>
       </c>
       <c r="K4">
-        <v>0.833</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6305,10 +6308,10 @@
         <v>-4.122</v>
       </c>
       <c r="J5">
-        <v>-1.115</v>
+        <v>-1.016</v>
       </c>
       <c r="K5">
-        <v>0.265</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6340,10 +6343,10 @@
         <v>-3.946</v>
       </c>
       <c r="J6">
-        <v>-1.049</v>
+        <v>-0.909</v>
       </c>
       <c r="K6">
-        <v>0.295</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6375,10 +6378,10 @@
         <v>-2.706</v>
       </c>
       <c r="J7">
-        <v>-0.678</v>
+        <v>-0.534</v>
       </c>
       <c r="K7">
-        <v>0.498</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6407,13 +6410,13 @@
         <v>0.022</v>
       </c>
       <c r="I8">
-        <v>2.544</v>
+        <v>2.524</v>
       </c>
       <c r="J8">
-        <v>1.974</v>
+        <v>1.814</v>
       </c>
       <c r="K8">
-        <v>0.049</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6445,10 +6448,10 @@
         <v>-0.232</v>
       </c>
       <c r="J9">
-        <v>-0.204</v>
+        <v>-0.175</v>
       </c>
       <c r="K9">
-        <v>0.839</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6480,10 +6483,10 @@
         <v>-0.239</v>
       </c>
       <c r="J10">
-        <v>-0.163</v>
+        <v>-0.159</v>
       </c>
       <c r="K10">
-        <v>0.871</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6515,10 +6518,10 @@
         <v>1.317</v>
       </c>
       <c r="J11">
-        <v>0.862</v>
+        <v>0.841</v>
       </c>
       <c r="K11">
-        <v>0.389</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6550,10 +6553,10 @@
         <v>1.16</v>
       </c>
       <c r="J12">
-        <v>0.754</v>
+        <v>0.666</v>
       </c>
       <c r="K12">
-        <v>0.451</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6585,10 +6588,10 @@
         <v>0.623</v>
       </c>
       <c r="J13">
-        <v>0.394</v>
+        <v>0.317</v>
       </c>
       <c r="K13">
-        <v>0.694</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6620,10 +6623,10 @@
         <v>-0.007</v>
       </c>
       <c r="J14">
-        <v>-0.34</v>
+        <v>-0.366</v>
       </c>
       <c r="K14">
-        <v>0.734</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6655,10 +6658,10 @@
         <v>0.012</v>
       </c>
       <c r="J15">
-        <v>0.524</v>
+        <v>0.519</v>
       </c>
       <c r="K15">
-        <v>0.601</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6690,10 +6693,10 @@
         <v>-0.005</v>
       </c>
       <c r="J16">
-        <v>-0.221</v>
+        <v>-0.226</v>
       </c>
       <c r="K16">
-        <v>0.825</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6725,10 +6728,10 @@
         <v>0.025</v>
       </c>
       <c r="J17">
-        <v>0.921</v>
+        <v>0.845</v>
       </c>
       <c r="K17">
-        <v>0.358</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6760,10 +6763,10 @@
         <v>-0.005</v>
       </c>
       <c r="J18">
-        <v>-0.166</v>
+        <v>-0.18</v>
       </c>
       <c r="K18">
-        <v>0.868</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6795,10 +6798,10 @@
         <v>-0.031</v>
       </c>
       <c r="J19">
-        <v>-1.066</v>
+        <v>-0.975</v>
       </c>
       <c r="K19">
-        <v>0.287</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -6884,10 +6887,10 @@
         <v>-4.38</v>
       </c>
       <c r="I2">
-        <v>-2.367</v>
+        <v>-2.06</v>
       </c>
       <c r="J2">
-        <v>0.018</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6916,10 +6919,10 @@
         <v>-0.123</v>
       </c>
       <c r="I3">
-        <v>-0.08699999999999999</v>
+        <v>-0.08</v>
       </c>
       <c r="J3">
-        <v>0.931</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6948,10 +6951,10 @@
         <v>-0.057</v>
       </c>
       <c r="I4">
-        <v>-0.025</v>
+        <v>-0.024</v>
       </c>
       <c r="J4">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6980,10 +6983,10 @@
         <v>4.764</v>
       </c>
       <c r="I5">
-        <v>1.912</v>
+        <v>1.652</v>
       </c>
       <c r="J5">
-        <v>0.057</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7012,10 +7015,10 @@
         <v>3.055</v>
       </c>
       <c r="I6">
-        <v>1.249</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J6">
-        <v>0.213</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7044,10 +7047,10 @@
         <v>0.55</v>
       </c>
       <c r="I7">
-        <v>0.209</v>
+        <v>0.168</v>
       </c>
       <c r="J7">
-        <v>0.835</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7073,13 +7076,13 @@
         <v>0.057</v>
       </c>
       <c r="H8">
-        <v>1.936</v>
+        <v>1.945</v>
       </c>
       <c r="I8">
-        <v>2.206</v>
+        <v>1.982</v>
       </c>
       <c r="J8">
-        <v>0.028</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7108,10 +7111,10 @@
         <v>-0.08599999999999999</v>
       </c>
       <c r="I9">
-        <v>-0.119</v>
+        <v>-0.111</v>
       </c>
       <c r="J9">
-        <v>0.905</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7140,10 +7143,10 @@
         <v>0.462</v>
       </c>
       <c r="I10">
-        <v>0.467</v>
+        <v>0.431</v>
       </c>
       <c r="J10">
-        <v>0.64</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7172,10 +7175,10 @@
         <v>-2.099</v>
       </c>
       <c r="I11">
-        <v>-2.015</v>
+        <v>-1.924</v>
       </c>
       <c r="J11">
-        <v>0.045</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7204,10 +7207,10 @@
         <v>-1.658</v>
       </c>
       <c r="I12">
-        <v>-1.633</v>
+        <v>-1.264</v>
       </c>
       <c r="J12">
-        <v>0.103</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7236,10 +7239,10 @@
         <v>-0.403</v>
       </c>
       <c r="I13">
-        <v>-0.388</v>
+        <v>-0.327</v>
       </c>
       <c r="J13">
-        <v>0.698</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7268,10 +7271,10 @@
         <v>-0.001</v>
       </c>
       <c r="I14">
-        <v>-0.035</v>
+        <v>-0.031</v>
       </c>
       <c r="J14">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7300,10 +7303,10 @@
         <v>0.012</v>
       </c>
       <c r="I15">
-        <v>0.764</v>
+        <v>0.647</v>
       </c>
       <c r="J15">
-        <v>0.445</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7332,10 +7335,10 @@
         <v>0.004</v>
       </c>
       <c r="I16">
-        <v>0.267</v>
+        <v>0.232</v>
       </c>
       <c r="J16">
-        <v>0.789</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7364,10 +7367,10 @@
         <v>0.023</v>
       </c>
       <c r="I17">
-        <v>1.142</v>
+        <v>0.967</v>
       </c>
       <c r="J17">
-        <v>0.254</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7396,10 +7399,10 @@
         <v>0.035</v>
       </c>
       <c r="I18">
-        <v>1.746</v>
+        <v>1.562</v>
       </c>
       <c r="J18">
-        <v>0.082</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7428,10 +7431,10 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <v>0.502</v>
+        <v>0.383</v>
       </c>
       <c r="J19">
-        <v>0.616</v>
+        <v>0.702</v>
       </c>
     </row>
   </sheetData>
@@ -7517,10 +7520,10 @@
         <v>-4.318</v>
       </c>
       <c r="I2">
-        <v>-1.993</v>
+        <v>-1.741</v>
       </c>
       <c r="J2">
-        <v>0.047</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7549,10 +7552,10 @@
         <v>-0.545</v>
       </c>
       <c r="I3">
-        <v>-0.33</v>
+        <v>-0.326</v>
       </c>
       <c r="J3">
-        <v>0.741</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7581,10 +7584,10 @@
         <v>-1.558</v>
       </c>
       <c r="I4">
-        <v>-0.588</v>
+        <v>-0.529</v>
       </c>
       <c r="J4">
-        <v>0.5570000000000001</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7613,10 +7616,10 @@
         <v>1.57</v>
       </c>
       <c r="I5">
-        <v>0.537</v>
+        <v>0.48</v>
       </c>
       <c r="J5">
-        <v>0.592</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7645,10 +7648,10 @@
         <v>-0.237</v>
       </c>
       <c r="I6">
-        <v>-0.083</v>
+        <v>-0.065</v>
       </c>
       <c r="J6">
-        <v>0.9340000000000001</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7677,10 +7680,10 @@
         <v>-0.173</v>
       </c>
       <c r="I7">
-        <v>-0.056</v>
+        <v>-0.051</v>
       </c>
       <c r="J7">
-        <v>0.955</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7706,13 +7709,13 @@
         <v>0.042</v>
       </c>
       <c r="H8">
-        <v>1.567</v>
+        <v>1.57</v>
       </c>
       <c r="I8">
-        <v>1.523</v>
+        <v>1.345</v>
       </c>
       <c r="J8">
-        <v>0.129</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7741,10 +7744,10 @@
         <v>0.333</v>
       </c>
       <c r="I9">
-        <v>0.393</v>
+        <v>0.373</v>
       </c>
       <c r="J9">
-        <v>0.695</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7773,10 +7776,10 @@
         <v>1.011</v>
       </c>
       <c r="I10">
-        <v>0.876</v>
+        <v>0.727</v>
       </c>
       <c r="J10">
-        <v>0.382</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7793,7 +7796,7 @@
         <v>1043</v>
       </c>
       <c r="E11" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F11">
         <v>612</v>
@@ -7805,10 +7808,10 @@
         <v>-1.02</v>
       </c>
       <c r="I11">
-        <v>-0.834</v>
+        <v>-0.781</v>
       </c>
       <c r="J11">
-        <v>0.405</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7825,7 +7828,7 @@
         <v>1044</v>
       </c>
       <c r="E12" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F12">
         <v>612</v>
@@ -7837,10 +7840,10 @@
         <v>-0.431</v>
       </c>
       <c r="I12">
-        <v>-0.362</v>
+        <v>-0.299</v>
       </c>
       <c r="J12">
-        <v>0.718</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7857,7 +7860,7 @@
         <v>1045</v>
       </c>
       <c r="E13" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F13">
         <v>612</v>
@@ -7869,10 +7872,10 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="I13">
-        <v>-0.463</v>
+        <v>-0.42</v>
       </c>
       <c r="J13">
-        <v>0.644</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7889,7 +7892,7 @@
         <v>1046</v>
       </c>
       <c r="E14" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F14">
         <v>612</v>
@@ -7901,10 +7904,10 @@
         <v>-0.005</v>
       </c>
       <c r="I14">
-        <v>-0.311</v>
+        <v>-0.273</v>
       </c>
       <c r="J14">
-        <v>0.756</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7921,7 +7924,7 @@
         <v>1047</v>
       </c>
       <c r="E15" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F15">
         <v>612</v>
@@ -7933,10 +7936,10 @@
         <v>0.008</v>
       </c>
       <c r="I15">
-        <v>0.472</v>
+        <v>0.377</v>
       </c>
       <c r="J15">
-        <v>0.637</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7953,7 +7956,7 @@
         <v>1048</v>
       </c>
       <c r="E16" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F16">
         <v>612</v>
@@ -7965,10 +7968,10 @@
         <v>0.001</v>
       </c>
       <c r="I16">
-        <v>0.06</v>
+        <v>0.054</v>
       </c>
       <c r="J16">
-        <v>0.952</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7985,7 +7988,7 @@
         <v>1049</v>
       </c>
       <c r="E17" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F17">
         <v>612</v>
@@ -7997,10 +8000,10 @@
         <v>0.051</v>
       </c>
       <c r="I17">
-        <v>2.237</v>
+        <v>1.813</v>
       </c>
       <c r="J17">
-        <v>0.026</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -8017,7 +8020,7 @@
         <v>1050</v>
       </c>
       <c r="E18" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="F18">
         <v>612</v>
@@ -8029,10 +8032,10 @@
         <v>0.045</v>
       </c>
       <c r="I18">
-        <v>1.94</v>
+        <v>1.701</v>
       </c>
       <c r="J18">
-        <v>0.053</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -8049,7 +8052,7 @@
         <v>1051</v>
       </c>
       <c r="E19" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F19">
         <v>612</v>
@@ -8061,10 +8064,10 @@
         <v>-0.01</v>
       </c>
       <c r="I19">
-        <v>-0.396</v>
+        <v>-0.312</v>
       </c>
       <c r="J19">
-        <v>0.6919999999999999</v>
+        <v>0.755</v>
       </c>
     </row>
   </sheetData>
@@ -8133,19 +8136,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G2">
         <v>612</v>
@@ -8157,10 +8160,10 @@
         <v>-4.884</v>
       </c>
       <c r="J2">
-        <v>-1.92</v>
+        <v>-1.736</v>
       </c>
       <c r="K2">
-        <v>0.056</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8168,19 +8171,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D3" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E3" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F3" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G3">
         <v>612</v>
@@ -8192,10 +8195,10 @@
         <v>-1.231</v>
       </c>
       <c r="J3">
-        <v>-0.636</v>
+        <v>-0.611</v>
       </c>
       <c r="K3">
-        <v>0.525</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8203,19 +8206,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G4">
         <v>612</v>
@@ -8227,10 +8230,10 @@
         <v>0.466</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="K4">
-        <v>0.881</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8238,19 +8241,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D5" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E5" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F5" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G5">
         <v>612</v>
@@ -8262,10 +8265,10 @@
         <v>3.122</v>
       </c>
       <c r="J5">
-        <v>0.911</v>
+        <v>0.907</v>
       </c>
       <c r="K5">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8273,19 +8276,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C6" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D6" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E6" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F6" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G6">
         <v>612</v>
@@ -8297,10 +8300,10 @@
         <v>0.754</v>
       </c>
       <c r="J6">
-        <v>0.224</v>
+        <v>0.187</v>
       </c>
       <c r="K6">
-        <v>0.823</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8308,19 +8311,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C7" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E7" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F7" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G7">
         <v>612</v>
@@ -8332,10 +8335,10 @@
         <v>-0.058</v>
       </c>
       <c r="J7">
-        <v>-0.016</v>
+        <v>-0.014</v>
       </c>
       <c r="K7">
-        <v>0.987</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8343,19 +8346,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C8" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D8" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E8" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F8" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G8">
         <v>612</v>
@@ -8364,13 +8367,13 @@
         <v>0.031</v>
       </c>
       <c r="I8">
-        <v>2.169</v>
+        <v>2.136</v>
       </c>
       <c r="J8">
-        <v>1.799</v>
+        <v>1.657</v>
       </c>
       <c r="K8">
-        <v>0.073</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8378,19 +8381,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C9" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D9" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E9" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F9" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="G9">
         <v>612</v>
@@ -8402,10 +8405,10 @@
         <v>0.387</v>
       </c>
       <c r="J9">
-        <v>0.389</v>
+        <v>0.356</v>
       </c>
       <c r="K9">
-        <v>0.697</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8413,19 +8416,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D10" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E10" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F10" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G10">
         <v>612</v>
@@ -8437,10 +8440,10 @@
         <v>0.207</v>
       </c>
       <c r="J10">
-        <v>0.152</v>
+        <v>0.144</v>
       </c>
       <c r="K10">
-        <v>0.879</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8448,19 +8451,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C11" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D11" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E11" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F11" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G11">
         <v>612</v>
@@ -8472,10 +8475,10 @@
         <v>-1.251</v>
       </c>
       <c r="J11">
-        <v>-0.872</v>
+        <v>-0.963</v>
       </c>
       <c r="K11">
-        <v>0.384</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8483,19 +8486,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C12" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="D12" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="E12" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F12" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G12">
         <v>612</v>
@@ -8507,10 +8510,10 @@
         <v>-0.874</v>
       </c>
       <c r="J12">
-        <v>-0.625</v>
+        <v>-0.513</v>
       </c>
       <c r="K12">
-        <v>0.532</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8518,19 +8521,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C13" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D13" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E13" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F13" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="G13">
         <v>612</v>
@@ -8542,10 +8545,10 @@
         <v>-0.29</v>
       </c>
       <c r="J13">
-        <v>-0.204</v>
+        <v>-0.171</v>
       </c>
       <c r="K13">
-        <v>0.838</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8553,16 +8556,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C14" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D14" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E14" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F14" t="s">
         <v>1149</v>
@@ -8577,10 +8580,10 @@
         <v>-0.011</v>
       </c>
       <c r="J14">
-        <v>-0.535</v>
+        <v>-0.542</v>
       </c>
       <c r="K14">
-        <v>0.593</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8588,13 +8591,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C15" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D15" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E15" t="s">
         <v>358</v>
@@ -8612,10 +8615,10 @@
         <v>0.015</v>
       </c>
       <c r="J15">
-        <v>0.713</v>
+        <v>0.578</v>
       </c>
       <c r="K15">
-        <v>0.476</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8623,16 +8626,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C16" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D16" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E16" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="F16" t="s">
         <v>1151</v>
@@ -8647,10 +8650,10 @@
         <v>-0.012</v>
       </c>
       <c r="J16">
-        <v>-0.516</v>
+        <v>-0.427</v>
       </c>
       <c r="K16">
-        <v>0.606</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8658,16 +8661,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C17" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D17" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E17" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F17" t="s">
         <v>1152</v>
@@ -8682,10 +8685,10 @@
         <v>0.059</v>
       </c>
       <c r="J17">
-        <v>2.196</v>
+        <v>1.769</v>
       </c>
       <c r="K17">
-        <v>0.029</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8693,16 +8696,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C18" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D18" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E18" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F18" t="s">
         <v>1153</v>
@@ -8717,10 +8720,10 @@
         <v>0.031</v>
       </c>
       <c r="J18">
-        <v>1.148</v>
+        <v>1.088</v>
       </c>
       <c r="K18">
-        <v>0.252</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8728,16 +8731,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C19" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D19" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E19" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="F19" t="s">
         <v>1154</v>
@@ -8752,10 +8755,10 @@
         <v>-0.027</v>
       </c>
       <c r="J19">
-        <v>-0.978</v>
+        <v>-0.786</v>
       </c>
       <c r="K19">
-        <v>0.329</v>
+        <v>0.432</v>
       </c>
     </row>
   </sheetData>
@@ -8843,7 +8846,7 @@
         <v>1226</v>
       </c>
       <c r="G2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H2">
         <v>612</v>
@@ -8855,10 +8858,10 @@
         <v>-6.814</v>
       </c>
       <c r="K2">
-        <v>-2.322</v>
+        <v>-2.242</v>
       </c>
       <c r="L2">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8881,7 +8884,7 @@
         <v>1227</v>
       </c>
       <c r="G3" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="H3">
         <v>612</v>
@@ -8893,10 +8896,10 @@
         <v>-1.682</v>
       </c>
       <c r="K3">
-        <v>-0.751</v>
+        <v>-0.723</v>
       </c>
       <c r="L3">
-        <v>0.453</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8919,7 +8922,7 @@
         <v>1228</v>
       </c>
       <c r="G4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="H4">
         <v>612</v>
@@ -8931,10 +8934,10 @@
         <v>-1.507</v>
       </c>
       <c r="K4">
-        <v>-0.419</v>
+        <v>-0.424</v>
       </c>
       <c r="L4">
-        <v>0.675</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8957,7 +8960,7 @@
         <v>1229</v>
       </c>
       <c r="G5" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H5">
         <v>612</v>
@@ -8969,10 +8972,10 @@
         <v>2.803</v>
       </c>
       <c r="K5">
-        <v>0.707</v>
+        <v>0.715</v>
       </c>
       <c r="L5">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8995,7 +8998,7 @@
         <v>1230</v>
       </c>
       <c r="G6" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H6">
         <v>612</v>
@@ -9007,10 +9010,10 @@
         <v>1.138</v>
       </c>
       <c r="K6">
-        <v>0.293</v>
+        <v>0.235</v>
       </c>
       <c r="L6">
-        <v>0.77</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9033,7 +9036,7 @@
         <v>1231</v>
       </c>
       <c r="G7" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="H7">
         <v>612</v>
@@ -9045,10 +9048,10 @@
         <v>-0.626</v>
       </c>
       <c r="K7">
-        <v>-0.15</v>
+        <v>-0.129</v>
       </c>
       <c r="L7">
-        <v>0.881</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9071,7 +9074,7 @@
         <v>1232</v>
       </c>
       <c r="G8" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="H8">
         <v>612</v>
@@ -9080,13 +9083,13 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>2.904</v>
+        <v>2.885</v>
       </c>
       <c r="K8">
-        <v>2.086</v>
+        <v>2.059</v>
       </c>
       <c r="L8">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9121,10 +9124,10 @@
         <v>0.447</v>
       </c>
       <c r="K9">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="L9">
-        <v>0.698</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9147,7 +9150,7 @@
         <v>1234</v>
       </c>
       <c r="G10" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="H10">
         <v>612</v>
@@ -9159,10 +9162,10 @@
         <v>1.153</v>
       </c>
       <c r="K10">
-        <v>0.736</v>
+        <v>0.673</v>
       </c>
       <c r="L10">
-        <v>0.462</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9185,7 +9188,7 @@
         <v>1235</v>
       </c>
       <c r="G11" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H11">
         <v>612</v>
@@ -9197,10 +9200,10 @@
         <v>-0.668</v>
       </c>
       <c r="K11">
-        <v>-0.402</v>
+        <v>-0.436</v>
       </c>
       <c r="L11">
-        <v>0.6879999999999999</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9235,10 +9238,10 @@
         <v>-1.193</v>
       </c>
       <c r="K12">
-        <v>-0.739</v>
+        <v>-0.583</v>
       </c>
       <c r="L12">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9258,10 +9261,10 @@
         <v>1219</v>
       </c>
       <c r="F13" t="s">
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="G13" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="H13">
         <v>612</v>
@@ -9273,10 +9276,10 @@
         <v>0.027</v>
       </c>
       <c r="K13">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="L13">
-        <v>0.987</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9296,10 +9299,10 @@
         <v>1220</v>
       </c>
       <c r="F14" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G14" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H14">
         <v>612</v>
@@ -9311,10 +9314,10 @@
         <v>-0.016</v>
       </c>
       <c r="K14">
-        <v>-0.671</v>
+        <v>-0.636</v>
       </c>
       <c r="L14">
-        <v>0.503</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9334,10 +9337,10 @@
         <v>1221</v>
       </c>
       <c r="F15" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="G15" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="H15">
         <v>612</v>
@@ -9349,10 +9352,10 @@
         <v>0.02</v>
       </c>
       <c r="K15">
-        <v>0.834</v>
+        <v>0.745</v>
       </c>
       <c r="L15">
-        <v>0.405</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9372,10 +9375,10 @@
         <v>1222</v>
       </c>
       <c r="F16" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G16" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="H16">
         <v>612</v>
@@ -9387,10 +9390,10 @@
         <v>-0.014</v>
       </c>
       <c r="K16">
-        <v>-0.514</v>
+        <v>-0.446</v>
       </c>
       <c r="L16">
-        <v>0.607</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9410,10 +9413,10 @@
         <v>1223</v>
       </c>
       <c r="F17" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G17" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="H17">
         <v>612</v>
@@ -9425,10 +9428,10 @@
         <v>0.056</v>
       </c>
       <c r="K17">
-        <v>1.804</v>
+        <v>1.642</v>
       </c>
       <c r="L17">
-        <v>0.07199999999999999</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9448,10 +9451,10 @@
         <v>1224</v>
       </c>
       <c r="F18" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G18" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="H18">
         <v>612</v>
@@ -9463,10 +9466,10 @@
         <v>0.027</v>
       </c>
       <c r="K18">
-        <v>0.863</v>
+        <v>0.885</v>
       </c>
       <c r="L18">
-        <v>0.389</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9486,10 +9489,10 @@
         <v>1225</v>
       </c>
       <c r="F19" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="G19" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H19">
         <v>612</v>
@@ -9501,10 +9504,10 @@
         <v>-0.038</v>
       </c>
       <c r="K19">
-        <v>-1.161</v>
+        <v>-1.046</v>
       </c>
       <c r="L19">
-        <v>0.246</v>
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>
@@ -9590,10 +9593,10 @@
         <v>-1.894</v>
       </c>
       <c r="I2">
-        <v>-0.928</v>
+        <v>-0.917</v>
       </c>
       <c r="J2">
-        <v>0.353</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9622,10 +9625,10 @@
         <v>0.343</v>
       </c>
       <c r="I3">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="J3">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9657,7 +9660,7 @@
         <v>0.008</v>
       </c>
       <c r="J4">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9686,10 +9689,10 @@
         <v>0.545</v>
       </c>
       <c r="I5">
-        <v>0.209</v>
+        <v>0.197</v>
       </c>
       <c r="J5">
-        <v>0.835</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9718,10 +9721,10 @@
         <v>2.132</v>
       </c>
       <c r="I6">
-        <v>0.801</v>
+        <v>0.778</v>
       </c>
       <c r="J6">
-        <v>0.423</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9750,10 +9753,10 @@
         <v>1.062</v>
       </c>
       <c r="I7">
-        <v>0.383</v>
+        <v>0.427</v>
       </c>
       <c r="J7">
-        <v>0.702</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9779,13 +9782,13 @@
         <v>0.026</v>
       </c>
       <c r="H8">
-        <v>0.195</v>
+        <v>0.214</v>
       </c>
       <c r="I8">
-        <v>0.217</v>
+        <v>0.254</v>
       </c>
       <c r="J8">
-        <v>0.828</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9814,10 +9817,10 @@
         <v>0.225</v>
       </c>
       <c r="I9">
-        <v>0.264</v>
+        <v>0.271</v>
       </c>
       <c r="J9">
-        <v>0.792</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9846,10 +9849,10 @@
         <v>0.12</v>
       </c>
       <c r="I10">
-        <v>0.117</v>
+        <v>0.114</v>
       </c>
       <c r="J10">
-        <v>0.907</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9878,10 +9881,10 @@
         <v>-0.363</v>
       </c>
       <c r="I11">
-        <v>-0.344</v>
+        <v>-0.321</v>
       </c>
       <c r="J11">
-        <v>0.731</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9910,10 +9913,10 @@
         <v>-0.329</v>
       </c>
       <c r="I12">
-        <v>-0.309</v>
+        <v>-0.302</v>
       </c>
       <c r="J12">
-        <v>0.758</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9942,10 +9945,10 @@
         <v>-0.547</v>
       </c>
       <c r="I13">
-        <v>-0.509</v>
+        <v>-0.555</v>
       </c>
       <c r="J13">
-        <v>0.611</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9974,10 +9977,10 @@
         <v>-0.019</v>
       </c>
       <c r="I14">
-        <v>-1.289</v>
+        <v>-1.074</v>
       </c>
       <c r="J14">
-        <v>0.198</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10006,10 +10009,10 @@
         <v>-0.003</v>
       </c>
       <c r="I15">
-        <v>-0.188</v>
+        <v>-0.168</v>
       </c>
       <c r="J15">
-        <v>0.851</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10038,10 +10041,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.334</v>
+        <v>0.319</v>
       </c>
       <c r="J16">
-        <v>0.738</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10070,10 +10073,10 @@
         <v>0.031</v>
       </c>
       <c r="I17">
-        <v>1.594</v>
+        <v>1.552</v>
       </c>
       <c r="J17">
-        <v>0.111</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10102,10 +10105,10 @@
         <v>0.029</v>
       </c>
       <c r="I18">
-        <v>1.431</v>
+        <v>1.304</v>
       </c>
       <c r="J18">
-        <v>0.153</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10134,10 +10137,10 @@
         <v>-0.002</v>
       </c>
       <c r="I19">
-        <v>-0.09</v>
+        <v>-0.081</v>
       </c>
       <c r="J19">
-        <v>0.929</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10223,10 +10226,10 @@
         <v>-1.141</v>
       </c>
       <c r="I2">
-        <v>-0.491</v>
+        <v>-0.515</v>
       </c>
       <c r="J2">
-        <v>0.624</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10255,10 +10258,10 @@
         <v>0.525</v>
       </c>
       <c r="I3">
-        <v>0.255</v>
+        <v>0.235</v>
       </c>
       <c r="J3">
-        <v>0.799</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10287,10 +10290,10 @@
         <v>0.397</v>
       </c>
       <c r="I4">
-        <v>0.141</v>
+        <v>0.138</v>
       </c>
       <c r="J4">
-        <v>0.888</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10319,10 +10322,10 @@
         <v>1.168</v>
       </c>
       <c r="I5">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="J5">
-        <v>0.695</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10351,10 +10354,10 @@
         <v>1.449</v>
       </c>
       <c r="I6">
-        <v>0.478</v>
+        <v>0.471</v>
       </c>
       <c r="J6">
-        <v>0.633</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10383,10 +10386,10 @@
         <v>1.414</v>
       </c>
       <c r="I7">
-        <v>0.447</v>
+        <v>0.431</v>
       </c>
       <c r="J7">
-        <v>0.655</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10412,13 +10415,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>0.058</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I8">
-        <v>0.056</v>
+        <v>0.089</v>
       </c>
       <c r="J8">
-        <v>0.955</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10447,10 +10450,10 @@
         <v>-0.076</v>
       </c>
       <c r="I9">
-        <v>-0.078</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="J9">
-        <v>0.9379999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10479,10 +10482,10 @@
         <v>-0.266</v>
       </c>
       <c r="I10">
-        <v>-0.228</v>
+        <v>-0.225</v>
       </c>
       <c r="J10">
-        <v>0.82</v>
+        <v>0.822</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10511,10 +10514,10 @@
         <v>-0.32</v>
       </c>
       <c r="I11">
-        <v>-0.267</v>
+        <v>-0.263</v>
       </c>
       <c r="J11">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10543,10 +10546,10 @@
         <v>-0.248</v>
       </c>
       <c r="I12">
-        <v>-0.204</v>
+        <v>-0.194</v>
       </c>
       <c r="J12">
-        <v>0.838</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10575,10 +10578,10 @@
         <v>-0.726</v>
       </c>
       <c r="I13">
-        <v>-0.593</v>
+        <v>-0.5620000000000001</v>
       </c>
       <c r="J13">
-        <v>0.554</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10607,10 +10610,10 @@
         <v>-0.014</v>
       </c>
       <c r="I14">
-        <v>-0.84</v>
+        <v>-0.777</v>
       </c>
       <c r="J14">
-        <v>0.401</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10639,10 +10642,10 @@
         <v>0.011</v>
       </c>
       <c r="I15">
-        <v>0.642</v>
+        <v>0.607</v>
       </c>
       <c r="J15">
-        <v>0.521</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10671,10 +10674,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I16">
-        <v>0.431</v>
+        <v>0.445</v>
       </c>
       <c r="J16">
-        <v>0.666</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10703,10 +10706,10 @@
         <v>0.035</v>
       </c>
       <c r="I17">
-        <v>1.601</v>
+        <v>1.463</v>
       </c>
       <c r="J17">
-        <v>0.11</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10735,10 +10738,10 @@
         <v>0.008</v>
       </c>
       <c r="I18">
-        <v>0.333</v>
+        <v>0.326</v>
       </c>
       <c r="J18">
-        <v>0.739</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10767,10 +10770,10 @@
         <v>-0.007</v>
       </c>
       <c r="I19">
-        <v>-0.278</v>
+        <v>-0.272</v>
       </c>
       <c r="J19">
-        <v>0.781</v>
+        <v>0.786</v>
       </c>
     </row>
   </sheetData>
@@ -10856,10 +10859,10 @@
         <v>-0.251</v>
       </c>
       <c r="I2">
-        <v>-0.095</v>
+        <v>-0.098</v>
       </c>
       <c r="J2">
-        <v>0.925</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10888,10 +10891,10 @@
         <v>0.308</v>
       </c>
       <c r="I3">
-        <v>0.131</v>
+        <v>0.127</v>
       </c>
       <c r="J3">
-        <v>0.896</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10920,10 +10923,10 @@
         <v>1.675</v>
       </c>
       <c r="I4">
-        <v>0.521</v>
+        <v>0.512</v>
       </c>
       <c r="J4">
-        <v>0.602</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10952,10 +10955,10 @@
         <v>1.743</v>
       </c>
       <c r="I5">
-        <v>0.513</v>
+        <v>0.504</v>
       </c>
       <c r="J5">
-        <v>0.608</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10984,10 +10987,10 @@
         <v>1.861</v>
       </c>
       <c r="I6">
-        <v>0.537</v>
+        <v>0.506</v>
       </c>
       <c r="J6">
-        <v>0.591</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11016,10 +11019,10 @@
         <v>2.063</v>
       </c>
       <c r="I7">
-        <v>0.571</v>
+        <v>0.506</v>
       </c>
       <c r="J7">
-        <v>0.5679999999999999</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11045,13 +11048,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-0.319</v>
+        <v>-0.275</v>
       </c>
       <c r="I8">
-        <v>-0.273</v>
+        <v>-0.25</v>
       </c>
       <c r="J8">
-        <v>0.785</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11080,10 +11083,10 @@
         <v>0.168</v>
       </c>
       <c r="I9">
-        <v>0.151</v>
+        <v>0.145</v>
       </c>
       <c r="J9">
-        <v>0.88</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11112,10 +11115,10 @@
         <v>-1.147</v>
       </c>
       <c r="I10">
-        <v>-0.86</v>
+        <v>-0.832</v>
       </c>
       <c r="J10">
-        <v>0.39</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11144,10 +11147,10 @@
         <v>-0.5649999999999999</v>
       </c>
       <c r="I11">
-        <v>-0.412</v>
+        <v>-0.399</v>
       </c>
       <c r="J11">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11176,10 +11179,10 @@
         <v>-0.496</v>
       </c>
       <c r="I12">
-        <v>-0.357</v>
+        <v>-0.338</v>
       </c>
       <c r="J12">
-        <v>0.721</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11208,10 +11211,10 @@
         <v>-0.634</v>
       </c>
       <c r="I13">
-        <v>-0.453</v>
+        <v>-0.382</v>
       </c>
       <c r="J13">
-        <v>0.651</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11240,10 +11243,10 @@
         <v>-0.026</v>
       </c>
       <c r="I14">
-        <v>-1.35</v>
+        <v>-1.278</v>
       </c>
       <c r="J14">
-        <v>0.177</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11304,10 +11307,10 @@
         <v>-0.008</v>
       </c>
       <c r="I16">
-        <v>-0.364</v>
+        <v>-0.369</v>
       </c>
       <c r="J16">
-        <v>0.716</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11336,10 +11339,10 @@
         <v>0.024</v>
       </c>
       <c r="I17">
-        <v>0.93</v>
+        <v>0.883</v>
       </c>
       <c r="J17">
-        <v>0.352</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11368,10 +11371,10 @@
         <v>-0.002</v>
       </c>
       <c r="I18">
-        <v>-0.063</v>
+        <v>-0.061</v>
       </c>
       <c r="J18">
-        <v>0.95</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11400,10 +11403,10 @@
         <v>-0.026</v>
       </c>
       <c r="I19">
-        <v>-0.955</v>
+        <v>-1.044</v>
       </c>
       <c r="J19">
-        <v>0.34</v>
+        <v>0.296</v>
       </c>
     </row>
   </sheetData>
@@ -11489,10 +11492,10 @@
         <v>-2.696</v>
       </c>
       <c r="I2">
-        <v>-1.622</v>
+        <v>-1.515</v>
       </c>
       <c r="J2">
-        <v>0.105</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11521,10 +11524,10 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="I3">
-        <v>0.483</v>
+        <v>0.472</v>
       </c>
       <c r="J3">
-        <v>0.629</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11553,10 +11556,10 @@
         <v>-0.345</v>
       </c>
       <c r="I4">
-        <v>-0.174</v>
+        <v>-0.16</v>
       </c>
       <c r="J4">
-        <v>0.862</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11585,10 +11588,10 @@
         <v>-0.7</v>
       </c>
       <c r="I5">
-        <v>-0.33</v>
+        <v>-0.289</v>
       </c>
       <c r="J5">
-        <v>0.742</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11617,10 +11620,10 @@
         <v>-0.624</v>
       </c>
       <c r="I6">
-        <v>-0.285</v>
+        <v>-0.291</v>
       </c>
       <c r="J6">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11649,10 +11652,10 @@
         <v>-2.531</v>
       </c>
       <c r="I7">
-        <v>-1.102</v>
+        <v>-1.043</v>
       </c>
       <c r="J7">
-        <v>0.271</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11678,13 +11681,13 @@
         <v>0.047</v>
       </c>
       <c r="H8">
-        <v>0.788</v>
+        <v>0.8</v>
       </c>
       <c r="I8">
-        <v>1.055</v>
+        <v>1.03</v>
       </c>
       <c r="J8">
-        <v>0.292</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11713,10 +11716,10 @@
         <v>-0.23</v>
       </c>
       <c r="I9">
-        <v>-0.335</v>
+        <v>-0.343</v>
       </c>
       <c r="J9">
-        <v>0.738</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11745,10 +11748,10 @@
         <v>-0.124</v>
       </c>
       <c r="I10">
-        <v>-0.146</v>
+        <v>-0.136</v>
       </c>
       <c r="J10">
-        <v>0.884</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11777,10 +11780,10 @@
         <v>-0.184</v>
       </c>
       <c r="I11">
-        <v>-0.209</v>
+        <v>-0.191</v>
       </c>
       <c r="J11">
-        <v>0.834</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11809,10 +11812,10 @@
         <v>0.457</v>
       </c>
       <c r="I12">
-        <v>0.513</v>
+        <v>0.51</v>
       </c>
       <c r="J12">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11841,10 +11844,10 @@
         <v>0.858</v>
       </c>
       <c r="I13">
-        <v>0.946</v>
+        <v>0.914</v>
       </c>
       <c r="J13">
-        <v>0.344</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11873,10 +11876,10 @@
         <v>-0.014</v>
       </c>
       <c r="I14">
-        <v>-1.08</v>
+        <v>-0.931</v>
       </c>
       <c r="J14">
-        <v>0.28</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11905,10 +11908,10 @@
         <v>-0.005</v>
       </c>
       <c r="I15">
-        <v>-0.383</v>
+        <v>-0.371</v>
       </c>
       <c r="J15">
-        <v>0.702</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11937,10 +11940,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.418</v>
+        <v>0.443</v>
       </c>
       <c r="J16">
-        <v>0.676</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11969,10 +11972,10 @@
         <v>-0.001</v>
       </c>
       <c r="I17">
-        <v>-0.056</v>
+        <v>-0.052</v>
       </c>
       <c r="J17">
-        <v>0.955</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12001,10 +12004,10 @@
         <v>0.017</v>
       </c>
       <c r="I18">
-        <v>1.021</v>
+        <v>0.885</v>
       </c>
       <c r="J18">
-        <v>0.308</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12033,10 +12036,10 @@
         <v>0.016</v>
       </c>
       <c r="I19">
-        <v>0.9409999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="J19">
-        <v>0.347</v>
+        <v>0.332</v>
       </c>
     </row>
   </sheetData>
@@ -12122,10 +12125,10 @@
         <v>-2.785</v>
       </c>
       <c r="I2">
-        <v>-1.371</v>
+        <v>-1.327</v>
       </c>
       <c r="J2">
-        <v>0.171</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12154,7 +12157,7 @@
         <v>-0.607</v>
       </c>
       <c r="I3">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="J3">
         <v>0.726</v>
@@ -12186,10 +12189,10 @@
         <v>-1.794</v>
       </c>
       <c r="I4">
-        <v>-0.741</v>
+        <v>-0.73</v>
       </c>
       <c r="J4">
-        <v>0.459</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12218,10 +12221,10 @@
         <v>-3.237</v>
       </c>
       <c r="I5">
-        <v>-1.25</v>
+        <v>-1.225</v>
       </c>
       <c r="J5">
-        <v>0.212</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12250,10 +12253,10 @@
         <v>-1.77</v>
       </c>
       <c r="I6">
-        <v>-0.662</v>
+        <v>-0.678</v>
       </c>
       <c r="J6">
-        <v>0.508</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12282,10 +12285,10 @@
         <v>-3.947</v>
       </c>
       <c r="I7">
-        <v>-1.408</v>
+        <v>-1.407</v>
       </c>
       <c r="J7">
-        <v>0.159</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12311,13 +12314,13 @@
         <v>0.032</v>
       </c>
       <c r="H8">
-        <v>0.8</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="I8">
-        <v>0.877</v>
+        <v>0.91</v>
       </c>
       <c r="J8">
-        <v>0.381</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12346,10 +12349,10 @@
         <v>0.649</v>
       </c>
       <c r="I9">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="J9">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12378,10 +12381,10 @@
         <v>0.528</v>
       </c>
       <c r="I10">
-        <v>0.511</v>
+        <v>0.486</v>
       </c>
       <c r="J10">
-        <v>0.61</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12410,10 +12413,10 @@
         <v>0.861</v>
       </c>
       <c r="I11">
-        <v>0.803</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="J11">
-        <v>0.422</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12442,10 +12445,10 @@
         <v>0.716</v>
       </c>
       <c r="I12">
-        <v>0.658</v>
+        <v>0.665</v>
       </c>
       <c r="J12">
-        <v>0.511</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12474,10 +12477,10 @@
         <v>1.062</v>
       </c>
       <c r="I13">
-        <v>0.959</v>
+        <v>0.974</v>
       </c>
       <c r="J13">
-        <v>0.338</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12506,10 +12509,10 @@
         <v>-0.012</v>
       </c>
       <c r="I14">
-        <v>-0.761</v>
+        <v>-0.618</v>
       </c>
       <c r="J14">
-        <v>0.447</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12538,10 +12541,10 @@
         <v>-0.01</v>
       </c>
       <c r="I15">
-        <v>-0.663</v>
+        <v>-0.621</v>
       </c>
       <c r="J15">
-        <v>0.508</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12570,10 +12573,10 @@
         <v>0.007</v>
       </c>
       <c r="I16">
-        <v>0.375</v>
+        <v>0.389</v>
       </c>
       <c r="J16">
-        <v>0.708</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12602,10 +12605,10 @@
         <v>0.015</v>
       </c>
       <c r="I17">
-        <v>0.772</v>
+        <v>0.72</v>
       </c>
       <c r="J17">
-        <v>0.441</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12634,10 +12637,10 @@
         <v>0.03</v>
       </c>
       <c r="I18">
-        <v>1.477</v>
+        <v>1.297</v>
       </c>
       <c r="J18">
-        <v>0.14</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12666,10 +12669,10 @@
         <v>0.023</v>
       </c>
       <c r="I19">
-        <v>1.114</v>
+        <v>1.01</v>
       </c>
       <c r="J19">
-        <v>0.265</v>
+        <v>0.312</v>
       </c>
     </row>
   </sheetData>
@@ -12755,10 +12758,10 @@
         <v>-2.156</v>
       </c>
       <c r="I2">
-        <v>-0.923</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="J2">
-        <v>0.356</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12787,10 +12790,10 @@
         <v>-0.029</v>
       </c>
       <c r="I3">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="J3">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12819,10 +12822,10 @@
         <v>-1.467</v>
       </c>
       <c r="I4">
-        <v>-0.527</v>
+        <v>-0.497</v>
       </c>
       <c r="J4">
-        <v>0.598</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12851,10 +12854,10 @@
         <v>-3.893</v>
       </c>
       <c r="I5">
-        <v>-1.309</v>
+        <v>-1.242</v>
       </c>
       <c r="J5">
-        <v>0.191</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12883,10 +12886,10 @@
         <v>-2.153</v>
       </c>
       <c r="I6">
-        <v>-0.701</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="J6">
-        <v>0.483</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12915,10 +12918,10 @@
         <v>-5.118</v>
       </c>
       <c r="I7">
-        <v>-1.59</v>
+        <v>-1.449</v>
       </c>
       <c r="J7">
-        <v>0.112</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12944,13 +12947,13 @@
         <v>0.024</v>
       </c>
       <c r="H8">
-        <v>0.88</v>
+        <v>0.896</v>
       </c>
       <c r="I8">
-        <v>0.84</v>
+        <v>0.903</v>
       </c>
       <c r="J8">
-        <v>0.401</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12979,10 +12982,10 @@
         <v>0.292</v>
       </c>
       <c r="I9">
-        <v>0.304</v>
+        <v>0.262</v>
       </c>
       <c r="J9">
-        <v>0.761</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13011,10 +13014,10 @@
         <v>-0.091</v>
       </c>
       <c r="I10">
-        <v>-0.077</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J10">
-        <v>0.9389999999999999</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13043,10 +13046,10 @@
         <v>1.274</v>
       </c>
       <c r="I11">
-        <v>1.034</v>
+        <v>1.061</v>
       </c>
       <c r="J11">
-        <v>0.302</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13075,10 +13078,10 @@
         <v>0.827</v>
       </c>
       <c r="I12">
-        <v>0.662</v>
+        <v>0.587</v>
       </c>
       <c r="J12">
-        <v>0.508</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13107,10 +13110,10 @@
         <v>1.7</v>
       </c>
       <c r="I13">
-        <v>1.337</v>
+        <v>1.224</v>
       </c>
       <c r="J13">
-        <v>0.182</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13139,10 +13142,10 @@
         <v>-0.014</v>
       </c>
       <c r="I14">
-        <v>-0.79</v>
+        <v>-0.804</v>
       </c>
       <c r="J14">
-        <v>0.43</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13171,10 +13174,10 @@
         <v>-0.008</v>
       </c>
       <c r="I15">
-        <v>-0.421</v>
+        <v>-0.394</v>
       </c>
       <c r="J15">
-        <v>0.674</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13203,10 +13206,10 @@
         <v>0.007</v>
       </c>
       <c r="I16">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="J16">
-        <v>0.728</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13235,10 +13238,10 @@
         <v>0.016</v>
       </c>
       <c r="I17">
-        <v>0.729</v>
+        <v>0.675</v>
       </c>
       <c r="J17">
-        <v>0.466</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13267,10 +13270,10 @@
         <v>0.011</v>
       </c>
       <c r="I18">
-        <v>0.448</v>
+        <v>0.414</v>
       </c>
       <c r="J18">
-        <v>0.654</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13299,10 +13302,10 @@
         <v>0.01</v>
       </c>
       <c r="I19">
-        <v>0.434</v>
+        <v>0.464</v>
       </c>
       <c r="J19">
-        <v>0.665</v>
+        <v>0.643</v>
       </c>
     </row>
   </sheetData>
@@ -13395,10 +13398,10 @@
         <v>-2.994</v>
       </c>
       <c r="J2">
-        <v>-1.118</v>
+        <v>-1.101</v>
       </c>
       <c r="K2">
-        <v>0.264</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13430,10 +13433,10 @@
         <v>0.354</v>
       </c>
       <c r="J3">
-        <v>0.155</v>
+        <v>0.133</v>
       </c>
       <c r="K3">
-        <v>0.877</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13465,10 +13468,10 @@
         <v>0.092</v>
       </c>
       <c r="J4">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="K4">
-        <v>0.977</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13500,10 +13503,10 @@
         <v>-3.459</v>
       </c>
       <c r="J5">
-        <v>-1.013</v>
+        <v>-0.981</v>
       </c>
       <c r="K5">
-        <v>0.311</v>
+        <v>0.327</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13535,10 +13538,10 @@
         <v>-1.986</v>
       </c>
       <c r="J6">
-        <v>-0.5639999999999999</v>
+        <v>-0.5679999999999999</v>
       </c>
       <c r="K6">
-        <v>0.573</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13570,10 +13573,10 @@
         <v>-4.702</v>
       </c>
       <c r="J7">
-        <v>-1.273</v>
+        <v>-1.041</v>
       </c>
       <c r="K7">
-        <v>0.203</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13602,13 +13605,13 @@
         <v>0.018</v>
       </c>
       <c r="I8">
-        <v>1.367</v>
+        <v>1.403</v>
       </c>
       <c r="J8">
-        <v>1.138</v>
+        <v>1.21</v>
       </c>
       <c r="K8">
-        <v>0.256</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13640,10 +13643,10 @@
         <v>0.202</v>
       </c>
       <c r="J9">
-        <v>0.183</v>
+        <v>0.157</v>
       </c>
       <c r="K9">
-        <v>0.855</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13675,10 +13678,10 @@
         <v>-0.897</v>
       </c>
       <c r="J10">
-        <v>-0.659</v>
+        <v>-0.591</v>
       </c>
       <c r="K10">
-        <v>0.51</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13710,10 +13713,10 @@
         <v>1.303</v>
       </c>
       <c r="J11">
-        <v>0.922</v>
+        <v>0.948</v>
       </c>
       <c r="K11">
-        <v>0.357</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13745,10 +13748,10 @@
         <v>0.574</v>
       </c>
       <c r="J12">
-        <v>0.401</v>
+        <v>0.379</v>
       </c>
       <c r="K12">
-        <v>0.6889999999999999</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13780,10 +13783,10 @@
         <v>1.507</v>
       </c>
       <c r="J13">
-        <v>1.033</v>
+        <v>0.856</v>
       </c>
       <c r="K13">
-        <v>0.302</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13815,10 +13818,10 @@
         <v>-0.014</v>
       </c>
       <c r="J14">
-        <v>-0.713</v>
+        <v>-0.753</v>
       </c>
       <c r="K14">
-        <v>0.476</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13850,10 +13853,10 @@
         <v>-0.01</v>
       </c>
       <c r="J15">
-        <v>-0.488</v>
+        <v>-0.494</v>
       </c>
       <c r="K15">
-        <v>0.626</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13885,10 +13888,10 @@
         <v>-0.001</v>
       </c>
       <c r="J16">
-        <v>-0.057</v>
+        <v>-0.059</v>
       </c>
       <c r="K16">
-        <v>0.954</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13920,10 +13923,10 @@
         <v>0.004</v>
       </c>
       <c r="J17">
-        <v>0.14</v>
+        <v>0.135</v>
       </c>
       <c r="K17">
-        <v>0.889</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13955,10 +13958,10 @@
         <v>-0.001</v>
       </c>
       <c r="J18">
-        <v>-0.038</v>
+        <v>-0.04</v>
       </c>
       <c r="K18">
-        <v>0.97</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13990,10 +13993,10 @@
         <v>-0.014</v>
       </c>
       <c r="J19">
-        <v>-0.52</v>
+        <v>-0.629</v>
       </c>
       <c r="K19">
-        <v>0.603</v>
+        <v>0.529</v>
       </c>
     </row>
   </sheetData>
@@ -14079,10 +14082,10 @@
         <v>-3.558</v>
       </c>
       <c r="I2">
-        <v>-2.046</v>
+        <v>-1.875</v>
       </c>
       <c r="J2">
-        <v>0.041</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14111,10 +14114,10 @@
         <v>0.845</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.572</v>
       </c>
       <c r="J3">
-        <v>0.548</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14143,10 +14146,10 @@
         <v>-1.749</v>
       </c>
       <c r="I4">
-        <v>-0.833</v>
+        <v>-0.756</v>
       </c>
       <c r="J4">
-        <v>0.405</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14175,10 +14178,10 @@
         <v>-0.917</v>
       </c>
       <c r="I5">
-        <v>-0.402</v>
+        <v>-0.386</v>
       </c>
       <c r="J5">
-        <v>0.6879999999999999</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14207,10 +14210,10 @@
         <v>0.716</v>
       </c>
       <c r="I6">
-        <v>0.309</v>
+        <v>0.302</v>
       </c>
       <c r="J6">
-        <v>0.758</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14239,10 +14242,10 @@
         <v>-0.663</v>
       </c>
       <c r="I7">
-        <v>-0.27</v>
+        <v>-0.233</v>
       </c>
       <c r="J7">
-        <v>0.788</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14268,13 +14271,13 @@
         <v>0.054</v>
       </c>
       <c r="H8">
-        <v>1.584</v>
+        <v>1.59</v>
       </c>
       <c r="I8">
-        <v>1.995</v>
+        <v>1.974</v>
       </c>
       <c r="J8">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14303,10 +14306,10 @@
         <v>-0.468</v>
       </c>
       <c r="I9">
-        <v>-0.668</v>
+        <v>-0.657</v>
       </c>
       <c r="J9">
-        <v>0.504</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14335,10 +14338,10 @@
         <v>0.728</v>
       </c>
       <c r="I10">
-        <v>0.805</v>
+        <v>0.737</v>
       </c>
       <c r="J10">
-        <v>0.421</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14370,7 +14373,7 @@
         <v>-0.115</v>
       </c>
       <c r="J11">
-        <v>0.909</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14399,10 +14402,10 @@
         <v>-0.38</v>
       </c>
       <c r="I12">
-        <v>-0.401</v>
+        <v>-0.375</v>
       </c>
       <c r="J12">
-        <v>0.6879999999999999</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14431,10 +14434,10 @@
         <v>-0.06</v>
       </c>
       <c r="I13">
-        <v>-0.062</v>
+        <v>-0.052</v>
       </c>
       <c r="J13">
-        <v>0.951</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14463,10 +14466,10 @@
         <v>0.004</v>
       </c>
       <c r="I14">
-        <v>0.263</v>
+        <v>0.252</v>
       </c>
       <c r="J14">
-        <v>0.792</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14495,10 +14498,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.707</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="J15">
-        <v>0.48</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14527,10 +14530,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I16">
-        <v>0.575</v>
+        <v>0.515</v>
       </c>
       <c r="J16">
-        <v>0.5659999999999999</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14559,10 +14562,10 @@
         <v>0.02</v>
       </c>
       <c r="I17">
-        <v>1.155</v>
+        <v>0.952</v>
       </c>
       <c r="J17">
-        <v>0.249</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14591,10 +14594,10 @@
         <v>0.02</v>
       </c>
       <c r="I18">
-        <v>1.119</v>
+        <v>0.994</v>
       </c>
       <c r="J18">
-        <v>0.264</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14623,10 +14626,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.797</v>
+        <v>0.621</v>
       </c>
       <c r="J19">
-        <v>0.426</v>
+        <v>0.535</v>
       </c>
     </row>
   </sheetData>
